--- a/censos/Formato_Usos_Usuarios_agua.xlsx
+++ b/censos/Formato_Usos_Usuarios_agua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Consultoria Ambiental\SGI\1. EIA_Metodologia\Metodología Ambiental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\censos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA4A964-8082-4078-BD85-EAD5BBB929B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A0D03C-1F7E-4B19-A370-276E211EA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U-A_001" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1109,7 +1107,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,48 +1131,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,9 +1148,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,40 +1166,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1257,80 +1183,206 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,66 +1391,48 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1916,432 +1950,432 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.69921875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.19921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="70"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="42" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="38"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="42" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="48"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="25" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="26"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="26" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="48"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="25" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="26" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="48"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="26" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="26" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="48"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="26" t="s">
+      <c r="O8" s="89"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="48"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="48"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="26" t="s">
+      <c r="O10" s="89"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="48"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="47" t="s">
+      <c r="O12" s="89"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="48"/>
-    </row>
-    <row r="15" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="48"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-    </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="O14" s="88"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-    </row>
-    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+    </row>
+    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="103" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2365,34 +2399,34 @@
       <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="102"/>
       <c r="K18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="102"/>
       <c r="O18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19" t="s">
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="S18" s="102"/>
+    </row>
+    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="104"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2400,221 +2434,221 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="20"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="106"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" spans="1:19" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="88"/>
-    </row>
-    <row r="21" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="106"/>
+    </row>
+    <row r="20" spans="1:19" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="65"/>
+    </row>
+    <row r="21" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="78" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="30"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="59"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="18"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="S24" s="15" t="s">
+      <c r="S24" s="90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="96"/>
+      <c r="B25" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="59"/>
+      <c r="I25" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="15" t="s">
+      <c r="L25" s="59"/>
+      <c r="M25" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="15" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="16"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
       <c r="K26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
       <c r="O26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-    </row>
-    <row r="27" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+    </row>
+    <row r="27" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="4"/>
@@ -2634,10 +2668,10 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="94"/>
-    </row>
-    <row r="28" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+      <c r="S27" s="92"/>
+    </row>
+    <row r="28" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4"/>
@@ -2657,10 +2691,10 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="95"/>
-    </row>
-    <row r="29" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="S28" s="93"/>
+    </row>
+    <row r="29" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="4"/>
@@ -2680,10 +2714,10 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="95"/>
-    </row>
-    <row r="30" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
+      <c r="S29" s="93"/>
+    </row>
+    <row r="30" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4"/>
@@ -2703,10 +2737,10 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="95"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="S30" s="93"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4"/>
@@ -2726,10 +2760,10 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="95"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
+      <c r="S31" s="93"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4"/>
@@ -2749,10 +2783,10 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="95"/>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+      <c r="S32" s="93"/>
+    </row>
+    <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="4"/>
@@ -2772,10 +2806,10 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="95"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="S33" s="93"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="4"/>
@@ -2795,10 +2829,10 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="95"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="S34" s="93"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="4"/>
@@ -2818,10 +2852,10 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="95"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="96" t="s">
+      <c r="S35" s="93"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="4"/>
@@ -2841,791 +2875,753 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="97"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="99"/>
-    </row>
-    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="S36" s="94"/>
+    </row>
+    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="68"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="109"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="101"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="110"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="112"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="101"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="110"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="112"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="101"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="110"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="112"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="101"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="112"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="101"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="112"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="101"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="110"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="112"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="101"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="112"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="101"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="115"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-    </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="118"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="101"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="119"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="121"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="101"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-    </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="119"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="121"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="101"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="120"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="121"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="101"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="120"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="120"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="121"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="101"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="102"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="121"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="101"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-    </row>
-    <row r="55" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="120"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="121"/>
+    </row>
+    <row r="55" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="101"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-    </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="122"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="124"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="101"/>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
-    </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="104"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="71"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="48"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="10" t="s">
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="26"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="10" t="s">
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="10" t="s">
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="48"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="48"/>
-    </row>
-    <row r="62" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="24"/>
-    </row>
-    <row r="63" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="63" t="s">
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="26"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="26"/>
+    </row>
+    <row r="62" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="10"/>
+    </row>
+    <row r="63" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="34"/>
+      <c r="B63" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="63" t="s">
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="63" t="s">
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="29"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="27"/>
-    </row>
-    <row r="65" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="24"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="63" t="s">
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="15"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="34"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="34"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="63" t="s">
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="63" t="s">
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="48"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="48"/>
-    </row>
-    <row r="68" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="48"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="106" t="s">
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="26"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="26"/>
+    </row>
+    <row r="68" spans="1:19" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="76"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="26"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="36"/>
+      <c r="B69" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="106" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="106"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="106" t="s">
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="67"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="A22:S22"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="A20:S20"/>
-    <mergeCell ref="A37:S37"/>
-    <mergeCell ref="A57:S57"/>
-    <mergeCell ref="A16:S16"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A58:S58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="A1:C15"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N4:O4"/>
+  <mergeCells count="87">
+    <mergeCell ref="A17:S17"/>
+    <mergeCell ref="A23:S23"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B39:S47"/>
+    <mergeCell ref="B48:S55"/>
     <mergeCell ref="A38:S38"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
@@ -3642,38 +3638,61 @@
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="S24:S26"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B42:S42"/>
-    <mergeCell ref="B43:S43"/>
-    <mergeCell ref="B44:S44"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="B46:S46"/>
-    <mergeCell ref="B47:S47"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:S48"/>
-    <mergeCell ref="B49:S49"/>
-    <mergeCell ref="B50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B40:S40"/>
-    <mergeCell ref="B41:S41"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A17:S17"/>
-    <mergeCell ref="A23:S23"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="A1:C15"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A58:S58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="A22:S22"/>
+    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A37:S37"/>
+    <mergeCell ref="A57:S57"/>
+    <mergeCell ref="A16:S16"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
   </mergeCells>
   <pageMargins left="0.55118110236220474" right="0.47244094488188981" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="57" orientation="landscape" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
